--- a/02_要求分析/非機能要求一覧 _07.xlsx
+++ b/02_要求分析/非機能要求一覧 _07.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA75117F-F95C-4874-A349-6B7F0FF10439}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB46FE23-7636-4D0A-A476-31DAC3B6F50D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="525" windowWidth="17700" windowHeight="9420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求_例" sheetId="6" r:id="rId1"/>
@@ -14,14 +14,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -384,27 +382,38 @@
     <t>二人対戦でもできるようにする。</t>
   </si>
   <si>
-    <t>二人対戦できるように配慮する。_x000D_
+    <t>N04-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N05-02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N05-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>二人対戦できるように配慮する。
 ※反復2では対応しない</t>
-  </si>
-  <si>
-    <t>N04-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N05-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N05-03</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機能追加やテストをしやすいようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +720,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,24 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1125,7 +1134,7 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -1514,18 +1523,18 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1533,19 +1542,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="27" t="s">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="22"/>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1556,14 +1565,14 @@
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="18"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1574,14 +1583,14 @@
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="19"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1601,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1601,7 +1610,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1621,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
         <v>15</v>
@@ -1625,7 +1634,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1">
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
@@ -1640,7 +1649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1651,7 +1660,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="8" t="s">
         <v>23</v>
@@ -1664,8 +1673,8 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" ht="9" customHeight="1"/>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
@@ -1695,7 +1704,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -2084,18 +2093,18 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2103,19 +2112,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="27" t="s">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="22"/>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2126,7 +2135,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1">
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>26</v>
@@ -2135,7 +2144,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>27</v>
@@ -2144,7 +2153,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -2153,7 +2162,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2173,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>29</v>
@@ -2173,7 +2182,7 @@
       <c r="E13" s="19"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
         <v>30</v>
@@ -2182,7 +2191,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5">
+    <row r="15" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="10" t="s">
         <v>31</v>
@@ -2191,7 +2200,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2202,7 +2211,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
         <v>32</v>
@@ -2211,25 +2220,25 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="16.5">
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="35"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="D19" s="26"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2237,41 +2246,43 @@
         <v>14</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="2:6" ht="42" customHeight="1">
+      <c r="E20" s="25"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="16.5">
+      <c r="E21" s="25"/>
+      <c r="F21" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="D22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2279,38 +2290,38 @@
         <v>22</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="E24" s="25"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5">
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="2:6" ht="9" customHeight="1"/>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="16"/>
     </row>
   </sheetData>
@@ -2329,12 +2340,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,19 +2530,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_要求分析/非機能要求一覧 _07.xlsx
+++ b/02_要求分析/非機能要求一覧 _07.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22919"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA75117F-F95C-4874-A349-6B7F0FF10439}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CDCC7C7-73F7-4655-A57E-641EE739F5CC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求_例" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -384,20 +384,30 @@
     <t>二人対戦でもできるようにする。</t>
   </si>
   <si>
-    <t>二人対戦できるように配慮する。_x000D_
+    <t>N04-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N05-02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N05-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>二人対戦できるように配慮する。
+(二人対戦に変更できるようにクラス図や構造を考える。)_x000D_
 ※反復2では対応しない</t>
   </si>
   <si>
-    <t>N04-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N05-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N05-03</t>
-    <phoneticPr fontId="5"/>
+    <t>機能追加やテストがしやすいようにする。</t>
+  </si>
+  <si>
+    <t>MUST</t>
+  </si>
+  <si>
+    <t>乱数ではなく、定数を指定できるようにする。</t>
   </si>
 </sst>
 </file>
@@ -637,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -711,6 +721,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,22 +754,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,7 +809,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1522,10 +1535,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1535,11 +1548,11 @@
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="22"/>
       <c r="F7" s="4" t="s">
         <v>5</v>
@@ -1691,7 +1704,7 @@
   </sheetPr>
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2092,10 +2105,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2105,11 +2118,11 @@
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="22"/>
       <c r="F7" s="4" t="s">
         <v>5</v>
@@ -2182,7 +2195,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5">
+    <row r="15" spans="2:6" ht="12">
       <c r="B15" s="11"/>
       <c r="C15" s="10" t="s">
         <v>31</v>
@@ -2211,13 +2224,13 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="16.5">
+    <row r="18" spans="2:6" ht="12">
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="35"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -2225,9 +2238,9 @@
       <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="13" t="s">
@@ -2237,39 +2250,47 @@
         <v>14</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="2:6" ht="42" customHeight="1">
+      <c r="E20" s="25"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="2:6" ht="84" customHeight="1">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="16.5">
+      <c r="E21" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="39.75" customHeight="1">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="34"/>
+      <c r="D22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="5" t="s">
@@ -2279,35 +2300,35 @@
         <v>22</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="33"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5">
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="2:6" ht="12">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="33"/>
+        <v>38</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="2:6" ht="9" customHeight="1"/>
     <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -2329,15 +2350,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2521,20 +2533,52 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>